--- a/TabelaMudancasNivelETrend.xlsx
+++ b/TabelaMudancasNivelETrend.xlsx
@@ -496,14 +496,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.76 – 0.84</t>
+          <t>0.78 – 0.88</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>1.18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -537,14 +537,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.0 – 1.0</t>
+          <t>0.99 – 1.0</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0.98</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2871</t>
+          <t>&lt; 0.001</t>
         </is>
       </c>
     </row>
@@ -578,14 +578,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.75 – 0.85</t>
+          <t>0.77 – 0.89</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1.17</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.99 – 1.0</t>
+          <t>0.99 – 0.99</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -660,18 +660,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.56 – 0.73</t>
+          <t>0.59 – 0.76</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.1336</t>
+          <t>0.1355</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.99 – 1.0</t>
+          <t>0.99 – 0.99</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0.98</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>&lt; 0.001</t>
         </is>
       </c>
     </row>
@@ -742,14 +742,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.72 – 0.81</t>
+          <t>0.74 – 0.83</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1.23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.99 – 1.0</t>
+          <t>0.99 – 0.99</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -824,14 +824,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.79 – 0.91</t>
+          <t>0.82 – 0.96</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G10" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>&lt; 0.001</t>
+          <t>0.0038</t>
         </is>
       </c>
     </row>
@@ -865,14 +865,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.99 – 1.0</t>
+          <t>0.99 – 0.99</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0.98</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>&lt; 0.001</t>
         </is>
       </c>
     </row>
@@ -901,19 +901,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.38 – 1.56</t>
+          <t>1.37 – 1.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.65 – 0.74</t>
+          <t>0.66 – 0.75</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1.46</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -983,23 +983,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.99 – 1.15</t>
+          <t>0.99 – 1.14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.56 – 0.75</t>
+          <t>0.56 – 0.72</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.0684</t>
+          <t>0.0788</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>&lt; 0.001</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1070,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.65 – 0.79</t>
+          <t>0.68 – 0.82</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0.75</v>
       </c>
       <c r="G16" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.0 – 1.0</t>
+          <t>0.99 – 1.0</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.519</t>
+          <t>0.5193</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.0196</t>
         </is>
       </c>
     </row>
@@ -1152,14 +1152,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.74 – 0.95</t>
+          <t>0.77 – 0.99</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0.44</v>
       </c>
       <c r="G18" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.031</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.01 – 1.02</t>
+          <t>1.0 – 1.01</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.7 – 0.8</t>
+          <t>0.69 – 0.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.74 – 0.9</t>
+          <t>0.75 – 0.9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.2114</t>
+          <t>0.1863</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1311,19 +1311,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.21 – 1.74</t>
+          <t>1.21 – 1.76</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.4 – 0.56</t>
+          <t>0.44 – 0.62</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G22" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1357,14 +1357,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.98 – 0.99</t>
+          <t>0.97 – 0.98</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>0.95</v>
       </c>
       <c r="G23" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1393,23 +1393,23 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.83 – 1.1</t>
+          <t>0.83 – 1.11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.51 – 0.68</t>
+          <t>0.53 – 0.7</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G24" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.5319</t>
+          <t>0.5624</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1446,7 +1446,7 @@
         <v>0.98</v>
       </c>
       <c r="G25" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1480,14 +1480,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.82 – 1.02</t>
+          <t>0.84 – 1.05</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.2753</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         <v>0.98</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.0778</t>
+          <t>&lt; 0.001</t>
         </is>
       </c>
     </row>
@@ -1562,18 +1562,18 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.69 – 0.86</t>
+          <t>0.7 – 0.86</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G28" t="n">
         <v>0.77</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.7126</t>
+          <t>0.7031</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.99 – 1.0</t>
+          <t>1.0 – 1.0</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.0437</t>
+          <t>0.0443</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.5803</t>
+          <t>0.4099</t>
         </is>
       </c>
     </row>
@@ -1644,18 +1644,18 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.63 – 0.79</t>
+          <t>0.66 – 0.81</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>1.13</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.99 – 1.0</t>
+          <t>0.99 – 0.99</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1726,14 +1726,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.83 – 0.97</t>
+          <t>0.87 – 1.04</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.3025</t>
         </is>
       </c>
     </row>
@@ -1767,14 +1767,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.01 – 1.01</t>
+          <t>1.0 – 1.01</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0.99</v>
       </c>
       <c r="G33" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>&lt; 0.001</t>
+          <t>0.034</t>
         </is>
       </c>
     </row>
